--- a/results/mp/tinybert/corona/confidence/126/topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/topk-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,91 +49,94 @@
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
+    <t>safe</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>please</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,10 +502,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -560,13 +563,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,31 +581,31 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>0.9152542372881356</v>
+      </c>
+      <c r="L3">
+        <v>54</v>
+      </c>
+      <c r="M3">
+        <v>54</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>5</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>18</v>
-      </c>
-      <c r="M3">
-        <v>18</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -610,13 +613,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7077922077922078</v>
+        <v>0.5856164383561644</v>
       </c>
       <c r="C4">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D4">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,19 +631,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -652,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -660,13 +663,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2918454935622318</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="C5">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>165</v>
+        <v>426</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -702,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -710,87 +713,63 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>157</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6">
+      <c r="K6">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L6">
+        <v>96</v>
+      </c>
+      <c r="M6">
+        <v>96</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>16</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>64</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6">
-        <v>0.9</v>
-      </c>
-      <c r="L6">
-        <v>36</v>
-      </c>
-      <c r="M6">
-        <v>36</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>4</v>
-      </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.1976744186046512</v>
-      </c>
-      <c r="C7">
+      <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>69</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K7">
-        <v>0.8627450980392157</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -806,41 +785,17 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="C8">
+      <c r="J8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>117</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="K8">
-        <v>0.8235294117647058</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L8">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M8">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -852,45 +807,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1272727272727273</v>
-      </c>
-      <c r="C9">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>96</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8148148148148148</v>
+        <v>0.7890625</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -902,21 +833,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7857142857142857</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L10">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="M10">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -928,21 +859,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7777777777777778</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -954,21 +885,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7241379310344828</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L12">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="M12">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -980,21 +911,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7068965517241379</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L13">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="M13">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1006,21 +937,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.6986301369863014</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L14">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1032,21 +963,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.68</v>
+        <v>0.71875</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="M15">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1058,21 +989,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.64</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L16">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1084,21 +1015,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6153846153846154</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L17">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1110,21 +1041,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6153846153846154</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L18">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M18">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1136,21 +1067,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19">
+        <v>0.64</v>
+      </c>
+      <c r="L19">
         <v>32</v>
       </c>
-      <c r="K19">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L19">
-        <v>14</v>
-      </c>
       <c r="M19">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1162,21 +1093,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.539906103286385</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L20">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1188,21 +1119,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5357142857142857</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1214,21 +1145,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1240,21 +1171,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>0.5169712793733682</v>
       </c>
       <c r="L23">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="M23">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1266,21 +1197,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>72</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4545454545454545</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1292,21 +1223,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4496124031007752</v>
+        <v>0.4441176470588235</v>
       </c>
       <c r="L25">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="M25">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1318,33 +1249,137 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>71</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26">
+        <v>0.4307692307692308</v>
+      </c>
+      <c r="L26">
+        <v>28</v>
+      </c>
+      <c r="M26">
+        <v>28</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27">
+        <v>0.4271186440677966</v>
+      </c>
+      <c r="L27">
+        <v>126</v>
+      </c>
+      <c r="M27">
+        <v>126</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L28">
+        <v>26</v>
+      </c>
+      <c r="M28">
+        <v>26</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K26">
-        <v>0.3804347826086957</v>
-      </c>
-      <c r="L26">
-        <v>35</v>
-      </c>
-      <c r="M26">
-        <v>35</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>57</v>
+      <c r="K29">
+        <v>0.3221757322175732</v>
+      </c>
+      <c r="L29">
+        <v>77</v>
+      </c>
+      <c r="M29">
+        <v>77</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30">
+        <v>0.005804643714971977</v>
+      </c>
+      <c r="L30">
+        <v>29</v>
+      </c>
+      <c r="M30">
+        <v>29</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>4967</v>
       </c>
     </row>
   </sheetData>
